--- a/data/pca/factorExposure/factorExposure_2009-07-13.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-07-13.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.01660667794502367</v>
+        <v>0.01640363381761052</v>
       </c>
       <c r="C2">
-        <v>-0.001387233967917756</v>
+        <v>0.0009629195235902592</v>
       </c>
       <c r="D2">
-        <v>-0.008010449469951776</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.00923363610671965</v>
+      </c>
+      <c r="E2">
+        <v>-0.001092771254358691</v>
+      </c>
+      <c r="F2">
+        <v>0.01173886703820302</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +751,36 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.09075100006100154</v>
+        <v>0.0916588634157985</v>
       </c>
       <c r="C4">
-        <v>-0.01966277813340426</v>
+        <v>0.01469524161204237</v>
       </c>
       <c r="D4">
-        <v>-0.07368110802019086</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.08302331453203511</v>
+      </c>
+      <c r="E4">
+        <v>-0.02847775933517761</v>
+      </c>
+      <c r="F4">
+        <v>-0.03153553457583817</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,192 +791,276 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.1532933638822413</v>
+        <v>0.1612927527254418</v>
       </c>
       <c r="C6">
-        <v>-0.02920430385491734</v>
+        <v>0.02823921449458681</v>
       </c>
       <c r="D6">
-        <v>0.03365379135477897</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.02692875128919761</v>
+      </c>
+      <c r="E6">
+        <v>-0.00901326642890561</v>
+      </c>
+      <c r="F6">
+        <v>-0.04166125642554747</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.06134677722467626</v>
+        <v>0.06254761231460411</v>
       </c>
       <c r="C7">
-        <v>-0.002050330472007906</v>
+        <v>-0.001586714695258953</v>
       </c>
       <c r="D7">
-        <v>-0.0458631389364226</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.05246804304572678</v>
+      </c>
+      <c r="E7">
+        <v>-0.01317321481835412</v>
+      </c>
+      <c r="F7">
+        <v>-0.04893306119051922</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.06210098529155789</v>
+        <v>0.05762777367744162</v>
       </c>
       <c r="C8">
-        <v>0.01070800595528733</v>
+        <v>-0.01245265247194715</v>
       </c>
       <c r="D8">
-        <v>-0.02600882392771307</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.03051428528279464</v>
+      </c>
+      <c r="E8">
+        <v>-0.01695649924418195</v>
+      </c>
+      <c r="F8">
+        <v>0.02619623631398077</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.07005297202791624</v>
+        <v>0.07098917118051053</v>
       </c>
       <c r="C9">
-        <v>-0.01610374842459203</v>
+        <v>0.01037585780377931</v>
       </c>
       <c r="D9">
-        <v>-0.07545713744713589</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.0861846095950604</v>
+      </c>
+      <c r="E9">
+        <v>-0.02497405467413866</v>
+      </c>
+      <c r="F9">
+        <v>-0.04838709017151293</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.08521468574622922</v>
+        <v>0.08824461608287053</v>
       </c>
       <c r="C10">
-        <v>-0.01462389926313023</v>
+        <v>0.02143113606009629</v>
       </c>
       <c r="D10">
-        <v>0.1661054841108882</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.1604401135690992</v>
+      </c>
+      <c r="E10">
+        <v>0.03306104074905592</v>
+      </c>
+      <c r="F10">
+        <v>0.05729497568041362</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.09113231647421911</v>
+        <v>0.08790319283827656</v>
       </c>
       <c r="C11">
-        <v>-0.01716856815954622</v>
+        <v>0.01127682421268932</v>
       </c>
       <c r="D11">
-        <v>-0.10683876615964</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.1177160747256178</v>
+      </c>
+      <c r="E11">
+        <v>-0.0478805413425531</v>
+      </c>
+      <c r="F11">
+        <v>-0.02323909668024048</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.09540765448463268</v>
+        <v>0.09008187852118631</v>
       </c>
       <c r="C12">
-        <v>-0.01465720891079713</v>
+        <v>0.00830609224390263</v>
       </c>
       <c r="D12">
-        <v>-0.1116906366079409</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.1319073743065455</v>
+      </c>
+      <c r="E12">
+        <v>-0.04669589820375287</v>
+      </c>
+      <c r="F12">
+        <v>-0.02974636379698451</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.04382425529529071</v>
+        <v>0.04384758302191463</v>
       </c>
       <c r="C13">
-        <v>-0.005630193889400666</v>
+        <v>0.002437683069126935</v>
       </c>
       <c r="D13">
-        <v>-0.03777948427349201</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.05335992028531836</v>
+      </c>
+      <c r="E13">
+        <v>0.0005501813866289563</v>
+      </c>
+      <c r="F13">
+        <v>-0.003761315703449132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.01858227226312486</v>
+        <v>0.02331103928000235</v>
       </c>
       <c r="C14">
-        <v>-0.01492738319490238</v>
+        <v>0.0136172914962701</v>
       </c>
       <c r="D14">
-        <v>-0.02666438873328003</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.03310637985063968</v>
+      </c>
+      <c r="E14">
+        <v>-0.01832287251679765</v>
+      </c>
+      <c r="F14">
+        <v>-0.01303011023998777</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.032982437326459</v>
+        <v>0.03349860084045317</v>
       </c>
       <c r="C15">
-        <v>-0.007227538635641262</v>
+        <v>0.005216442311353805</v>
       </c>
       <c r="D15">
-        <v>-0.04076319224909817</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.04644207270148178</v>
+      </c>
+      <c r="E15">
+        <v>-0.007784533489160282</v>
+      </c>
+      <c r="F15">
+        <v>-0.02937794270462971</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.07488345248501499</v>
+        <v>0.07284988538892032</v>
       </c>
       <c r="C16">
-        <v>-0.00741081127485153</v>
+        <v>0.00151059313650347</v>
       </c>
       <c r="D16">
-        <v>-0.1095019398978825</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.1283272893893285</v>
+      </c>
+      <c r="E16">
+        <v>-0.06197776560120766</v>
+      </c>
+      <c r="F16">
+        <v>-0.0258367600684005</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-0.0001403077813143982</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>-0.0002932358794959796</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>0.001473961469891056</v>
+      </c>
+      <c r="E17">
+        <v>-0.001114788896423087</v>
+      </c>
+      <c r="F17">
+        <v>0.002422112285774007</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>-0.01895257207370837</v>
+        <v>0.0402075511887968</v>
       </c>
       <c r="C18">
-        <v>0.003151472019374513</v>
+        <v>-0.002929044419497528</v>
       </c>
       <c r="D18">
-        <v>-0.02590620909254009</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>0.01568235217339617</v>
+      </c>
+      <c r="E18">
+        <v>0.00730767756725421</v>
+      </c>
+      <c r="F18">
+        <v>0.009217283439313341</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.06349682585924243</v>
+        <v>0.0623410247596652</v>
       </c>
       <c r="C20">
-        <v>-0.005534548457121775</v>
+        <v>0.0009181250066960289</v>
       </c>
       <c r="D20">
-        <v>-0.06625274147751035</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.07858793052243135</v>
+      </c>
+      <c r="E20">
+        <v>-0.05738631268745064</v>
+      </c>
+      <c r="F20">
+        <v>-0.02882826811610694</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.03729520282132169</v>
+        <v>0.04053124864166752</v>
       </c>
       <c r="C21">
-        <v>-0.00934966255789879</v>
+        <v>0.006437689091036699</v>
       </c>
       <c r="D21">
-        <v>-0.03576157126611737</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.03737413855287297</v>
+      </c>
+      <c r="E21">
+        <v>0.001434546683401831</v>
+      </c>
+      <c r="F21">
+        <v>0.02617622193344384</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.04150043768402716</v>
+        <v>0.0449872301375111</v>
       </c>
       <c r="C22">
-        <v>-0.002021072960395932</v>
+        <v>0.000838858070697555</v>
       </c>
       <c r="D22">
-        <v>0.003014181242618962</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.005981532752689516</v>
+      </c>
+      <c r="E22">
+        <v>-0.03623479570555344</v>
+      </c>
+      <c r="F22">
+        <v>0.05042370343630565</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.04146323084922429</v>
+        <v>0.04496324898259494</v>
       </c>
       <c r="C23">
-        <v>-0.002010615511999912</v>
+        <v>0.0008298697782083261</v>
       </c>
       <c r="D23">
-        <v>0.002991619218771786</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.005995972634286824</v>
+      </c>
+      <c r="E23">
+        <v>-0.03641784516492324</v>
+      </c>
+      <c r="F23">
+        <v>0.05039679328443782</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.08185548618575758</v>
+        <v>0.07873133409957726</v>
       </c>
       <c r="C24">
-        <v>-0.007800676943460066</v>
+        <v>0.002217556526696443</v>
       </c>
       <c r="D24">
-        <v>-0.1117772564172606</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.1206296721716921</v>
+      </c>
+      <c r="E24">
+        <v>-0.04977630037671148</v>
+      </c>
+      <c r="F24">
+        <v>-0.02837417039287787</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.08732769154289396</v>
+        <v>0.08377188420534711</v>
       </c>
       <c r="C25">
-        <v>-0.01056477250949763</v>
+        <v>0.004922661641348664</v>
       </c>
       <c r="D25">
-        <v>-0.0973390858259295</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.1097631799091055</v>
+      </c>
+      <c r="E25">
+        <v>-0.03297900713047819</v>
+      </c>
+      <c r="F25">
+        <v>-0.02624975405046595</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.05787712948700934</v>
+        <v>0.05984293930657411</v>
       </c>
       <c r="C26">
-        <v>-0.01729179248934219</v>
+        <v>0.01455163584920898</v>
       </c>
       <c r="D26">
-        <v>-0.0251870900536972</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.04324382668859941</v>
+      </c>
+      <c r="E26">
+        <v>-0.02977965953545287</v>
+      </c>
+      <c r="F26">
+        <v>0.009067871985589943</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,150 +1231,216 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.1339453097902766</v>
+        <v>0.1418798108447643</v>
       </c>
       <c r="C28">
-        <v>-0.01374350732081667</v>
+        <v>0.02299911255887104</v>
       </c>
       <c r="D28">
-        <v>0.2687208479533308</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.2610364631017077</v>
+      </c>
+      <c r="E28">
+        <v>0.06872357231787569</v>
+      </c>
+      <c r="F28">
+        <v>-0.005381271114400058</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.02526182681447976</v>
+        <v>0.02861256799267313</v>
       </c>
       <c r="C29">
-        <v>-0.009616222836324649</v>
+        <v>0.008771141464864605</v>
       </c>
       <c r="D29">
-        <v>-0.02530927437262282</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.03094568734481997</v>
+      </c>
+      <c r="E29">
+        <v>-0.01313888357470532</v>
+      </c>
+      <c r="F29">
+        <v>0.01292088950515006</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.06284371741683446</v>
+        <v>0.05932948463353841</v>
       </c>
       <c r="C30">
-        <v>-0.009300813484025524</v>
+        <v>0.002693799243531924</v>
       </c>
       <c r="D30">
-        <v>-0.07308226133057445</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.08733001614078408</v>
+      </c>
+      <c r="E30">
+        <v>-0.01414335929645323</v>
+      </c>
+      <c r="F30">
+        <v>-0.07844912802448965</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.05010772146386138</v>
+        <v>0.05125661406885121</v>
       </c>
       <c r="C31">
-        <v>-0.01708857207486941</v>
+        <v>0.01607332646582987</v>
       </c>
       <c r="D31">
-        <v>-0.02292710165798014</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.0249074614272928</v>
+      </c>
+      <c r="E31">
+        <v>-0.02904376896058691</v>
+      </c>
+      <c r="F31">
+        <v>0.0007214178957361319</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.04689839526547706</v>
+        <v>0.05128464439354478</v>
       </c>
       <c r="C32">
-        <v>-0.002139472128595364</v>
+        <v>-0.001581748080363752</v>
       </c>
       <c r="D32">
-        <v>-0.02448445795270532</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.03436408667931336</v>
+      </c>
+      <c r="E32">
+        <v>-0.03250038597652446</v>
+      </c>
+      <c r="F32">
+        <v>-0.003214649073954794</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.09062008838079365</v>
+        <v>0.0894792467929067</v>
       </c>
       <c r="C33">
-        <v>-0.01328238438666342</v>
+        <v>0.00693260892282588</v>
       </c>
       <c r="D33">
-        <v>-0.08549944814833754</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.1033739046596156</v>
+      </c>
+      <c r="E33">
+        <v>-0.04670466245349275</v>
+      </c>
+      <c r="F33">
+        <v>-0.04273798872713055</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.06892026875506593</v>
+        <v>0.06747292755574442</v>
       </c>
       <c r="C34">
-        <v>-0.01534165058428372</v>
+        <v>0.0104138051992612</v>
       </c>
       <c r="D34">
-        <v>-0.09190451120951074</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.1094666580593793</v>
+      </c>
+      <c r="E34">
+        <v>-0.03599984609540037</v>
+      </c>
+      <c r="F34">
+        <v>-0.03367598059275588</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.02469647035555842</v>
+        <v>0.02658640024488422</v>
       </c>
       <c r="C35">
-        <v>-0.003375450584577927</v>
+        <v>0.003108174568265064</v>
       </c>
       <c r="D35">
-        <v>-0.007019834119123086</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.01233695332886678</v>
+      </c>
+      <c r="E35">
+        <v>-0.0131803334082853</v>
+      </c>
+      <c r="F35">
+        <v>-0.0007525188473663201</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.02571106009169611</v>
+        <v>0.02792581014634047</v>
       </c>
       <c r="C36">
-        <v>-0.007647511043793856</v>
+        <v>0.006944279676570673</v>
       </c>
       <c r="D36">
-        <v>-0.0387747701538944</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.0391163356135679</v>
+      </c>
+      <c r="E36">
+        <v>-0.01707336243703225</v>
+      </c>
+      <c r="F36">
+        <v>-0.0136555775203481</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.001311739872944597</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>-0.0007595893530774188</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>0.002721421960616001</v>
+      </c>
+      <c r="E37">
+        <v>-0.0002682440697613222</v>
+      </c>
+      <c r="F37">
+        <v>0.002032556600260647</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1223,52 +1451,76 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.1127725024231224</v>
+        <v>0.1016909430391854</v>
       </c>
       <c r="C39">
-        <v>-0.02329566404779727</v>
+        <v>0.01620415869702876</v>
       </c>
       <c r="D39">
-        <v>-0.1467636657147157</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.1513341713753911</v>
+      </c>
+      <c r="E39">
+        <v>-0.05990161131365306</v>
+      </c>
+      <c r="F39">
+        <v>-0.02074465586248463</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.0386971176051451</v>
+        <v>0.04390185979248797</v>
       </c>
       <c r="C40">
-        <v>-0.009328223600383262</v>
+        <v>0.007748736180007056</v>
       </c>
       <c r="D40">
-        <v>-0.01973100139493655</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.03261539751306185</v>
+      </c>
+      <c r="E40">
+        <v>-0.002338952114858447</v>
+      </c>
+      <c r="F40">
+        <v>0.01637448890461642</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.02556428938361702</v>
+        <v>0.02774785671240391</v>
       </c>
       <c r="C41">
-        <v>-0.007416519053129163</v>
+        <v>0.006982522473220054</v>
       </c>
       <c r="D41">
-        <v>-0.009460483295903573</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.01076891521787715</v>
+      </c>
+      <c r="E41">
+        <v>-0.01229986473238154</v>
+      </c>
+      <c r="F41">
+        <v>0.007600010314536134</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.04221777996867106</v>
+        <v>0.0403600952031824</v>
       </c>
       <c r="C43">
-        <v>-0.008199939689114727</v>
+        <v>0.007718416513738639</v>
       </c>
       <c r="D43">
-        <v>-0.01727043544876918</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.0195346330890827</v>
+      </c>
+      <c r="E43">
+        <v>-0.0257874025591988</v>
+      </c>
+      <c r="F43">
+        <v>0.01640670693164607</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.06969813307009474</v>
+        <v>0.07876961836914335</v>
       </c>
       <c r="C44">
-        <v>-0.0247763777394262</v>
+        <v>0.01953505967432216</v>
       </c>
       <c r="D44">
-        <v>-0.09391181346813629</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.0960927781571027</v>
+      </c>
+      <c r="E44">
+        <v>-0.06231731544894707</v>
+      </c>
+      <c r="F44">
+        <v>-0.1678154662792132</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,80 +1591,116 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.0215717093348666</v>
+        <v>0.02459945310574845</v>
       </c>
       <c r="C46">
-        <v>-0.004291865269461803</v>
+        <v>0.003734405096303298</v>
       </c>
       <c r="D46">
-        <v>-0.005889473193210119</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01313870304976675</v>
+      </c>
+      <c r="E46">
+        <v>-0.02727166445284053</v>
+      </c>
+      <c r="F46">
+        <v>0.005431201745722444</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.05217277148555678</v>
+        <v>0.05179607912420231</v>
       </c>
       <c r="C47">
-        <v>-0.004939799961548034</v>
+        <v>0.004302211954806503</v>
       </c>
       <c r="D47">
-        <v>-0.008230512224403838</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.01081409708403766</v>
+      </c>
+      <c r="E47">
+        <v>-0.0226757989352455</v>
+      </c>
+      <c r="F47">
+        <v>0.0324660850441917</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.04802541800132578</v>
+        <v>0.05089070590007715</v>
       </c>
       <c r="C48">
-        <v>-0.004748739231755532</v>
+        <v>0.002244292334101045</v>
       </c>
       <c r="D48">
-        <v>-0.04290920731475076</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.05000007461058423</v>
+      </c>
+      <c r="E48">
+        <v>0.004720688719546181</v>
+      </c>
+      <c r="F48">
+        <v>-0.01197193744750297</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.2010671057055646</v>
+        <v>0.2000560696862567</v>
       </c>
       <c r="C49">
-        <v>-0.02225494749364531</v>
+        <v>0.02010018548773376</v>
       </c>
       <c r="D49">
-        <v>0.01227593837094987</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.005414605912159092</v>
+      </c>
+      <c r="E49">
+        <v>-0.03169850393788723</v>
+      </c>
+      <c r="F49">
+        <v>-0.04821792778461342</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.04953192797256159</v>
+        <v>0.05168814508623593</v>
       </c>
       <c r="C50">
-        <v>-0.01307477585353979</v>
+        <v>0.0118105727273493</v>
       </c>
       <c r="D50">
-        <v>-0.02276706202934222</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.02323707470862146</v>
+      </c>
+      <c r="E50">
+        <v>-0.03007914358815177</v>
+      </c>
+      <c r="F50">
+        <v>-0.01022811883290114</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1711,116 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.1558254307933129</v>
+        <v>0.1495235830655874</v>
       </c>
       <c r="C52">
-        <v>-0.02083943739928463</v>
+        <v>0.01877674742506652</v>
       </c>
       <c r="D52">
-        <v>-0.04638984799106865</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>0.04254976295381965</v>
+      </c>
+      <c r="E52">
+        <v>-0.0232535861750814</v>
+      </c>
+      <c r="F52">
+        <v>-0.04330529475740019</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.1743313900969051</v>
+        <v>0.1695306904654598</v>
       </c>
       <c r="C53">
-        <v>-0.02116691387030925</v>
+        <v>0.02156061564817124</v>
       </c>
       <c r="D53">
-        <v>-0.01157230169499396</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.00581625627407825</v>
+      </c>
+      <c r="E53">
+        <v>-0.03074860788961557</v>
+      </c>
+      <c r="F53">
+        <v>-0.07588200458704718</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.01619262371743773</v>
+        <v>0.01914713043854246</v>
       </c>
       <c r="C54">
-        <v>-0.01214663930728281</v>
+        <v>0.0108796224046808</v>
       </c>
       <c r="D54">
-        <v>-0.02784954099916984</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.03369594925709889</v>
+      </c>
+      <c r="E54">
+        <v>-0.02126195346791545</v>
+      </c>
+      <c r="F54">
+        <v>0.002112864333139796</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.1173367621171855</v>
+        <v>0.1161271290529824</v>
       </c>
       <c r="C55">
-        <v>-0.01875260664030086</v>
+        <v>0.01881077110846315</v>
       </c>
       <c r="D55">
-        <v>-0.0098808865971989</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.008800756968385545</v>
+      </c>
+      <c r="E55">
+        <v>-0.0262410000813749</v>
+      </c>
+      <c r="F55">
+        <v>-0.04784912860522525</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1805220748494381</v>
+        <v>0.1758973518906793</v>
       </c>
       <c r="C56">
-        <v>-0.01918591863312334</v>
+        <v>0.01954199558169304</v>
       </c>
       <c r="D56">
-        <v>-0.002066284290234218</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.002282500682613793</v>
+      </c>
+      <c r="E56">
+        <v>-0.03322166037133913</v>
+      </c>
+      <c r="F56">
+        <v>-0.05495907103466761</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.04878513919555334</v>
+        <v>0.04626149955888473</v>
       </c>
       <c r="C58">
-        <v>-0.005623790698662486</v>
+        <v>0.0001545284056008818</v>
       </c>
       <c r="D58">
-        <v>-0.06315011131483762</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.07598309032439649</v>
+      </c>
+      <c r="E58">
+        <v>-0.03602306503014586</v>
+      </c>
+      <c r="F58">
+        <v>0.03708726147809807</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.1623513228427252</v>
+        <v>0.1666922399576015</v>
       </c>
       <c r="C59">
-        <v>-0.01553064149423384</v>
+        <v>0.02325998905055109</v>
       </c>
       <c r="D59">
-        <v>0.2248980537356228</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.2182621478443199</v>
+      </c>
+      <c r="E59">
+        <v>0.04954391080570433</v>
+      </c>
+      <c r="F59">
+        <v>0.03888133093713233</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.2382166816979634</v>
+        <v>0.2302472834132703</v>
       </c>
       <c r="C60">
-        <v>-0.002787760875269244</v>
+        <v>-0.0003594905222706253</v>
       </c>
       <c r="D60">
-        <v>-0.04286359944253152</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.03902602863146235</v>
+      </c>
+      <c r="E60">
+        <v>-0.005394269568340802</v>
+      </c>
+      <c r="F60">
+        <v>-0.004356928299639143</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.08372648168951678</v>
+        <v>0.07732568143686239</v>
       </c>
       <c r="C61">
-        <v>-0.01708941698495911</v>
+        <v>0.01149658957985762</v>
       </c>
       <c r="D61">
-        <v>-0.1054551333506078</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.1161049713811503</v>
+      </c>
+      <c r="E61">
+        <v>-0.03824340750933922</v>
+      </c>
+      <c r="F61">
+        <v>-0.007861986525475395</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.1718741742556254</v>
+        <v>0.1692406196403024</v>
       </c>
       <c r="C62">
-        <v>-0.02300407641655145</v>
+        <v>0.02234441801922816</v>
       </c>
       <c r="D62">
-        <v>-0.003796392146164614</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>0.005819261901604786</v>
+      </c>
+      <c r="E62">
+        <v>-0.03426729537791113</v>
+      </c>
+      <c r="F62">
+        <v>-0.04064321411818743</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.04216720102737988</v>
+        <v>0.04577513457599462</v>
       </c>
       <c r="C63">
-        <v>-0.005564708634532953</v>
+        <v>0.00181809061763177</v>
       </c>
       <c r="D63">
-        <v>-0.04728020314622918</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.06037282967928388</v>
+      </c>
+      <c r="E63">
+        <v>-0.0247671034786366</v>
+      </c>
+      <c r="F63">
+        <v>-0.0007812259146269296</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.1132305716058117</v>
+        <v>0.1109574706229296</v>
       </c>
       <c r="C64">
-        <v>-0.01581513344652769</v>
+        <v>0.01258995362283462</v>
       </c>
       <c r="D64">
-        <v>-0.03083170405476443</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.04253769495501376</v>
+      </c>
+      <c r="E64">
+        <v>-0.02359164190710744</v>
+      </c>
+      <c r="F64">
+        <v>-0.02493347477771093</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.1437551108429379</v>
+        <v>0.1518641245367814</v>
       </c>
       <c r="C65">
-        <v>-0.03521642821052098</v>
+        <v>0.03534991496299586</v>
       </c>
       <c r="D65">
-        <v>0.05854915052618866</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.04764268010371493</v>
+      </c>
+      <c r="E65">
+        <v>-0.005249814959879926</v>
+      </c>
+      <c r="F65">
+        <v>-0.03871038088784626</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.1358519736907524</v>
+        <v>0.1221261962569739</v>
       </c>
       <c r="C66">
-        <v>-0.02178833369857015</v>
+        <v>0.01458045007393729</v>
       </c>
       <c r="D66">
-        <v>-0.1261303128694587</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.1391412399649573</v>
+      </c>
+      <c r="E66">
+        <v>-0.06435009194498204</v>
+      </c>
+      <c r="F66">
+        <v>-0.02665953585040104</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.06259290688048127</v>
+        <v>0.05564480434353367</v>
       </c>
       <c r="C67">
-        <v>-0.005716793136785327</v>
+        <v>0.003242376925864773</v>
       </c>
       <c r="D67">
-        <v>-0.05490099348129329</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.05664870229010455</v>
+      </c>
+      <c r="E67">
+        <v>-0.01756293394511111</v>
+      </c>
+      <c r="F67">
+        <v>0.03428890977054695</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1072335121245446</v>
+        <v>0.1166442786863552</v>
       </c>
       <c r="C68">
-        <v>-0.02378839955954453</v>
+        <v>0.03380888359229817</v>
       </c>
       <c r="D68">
-        <v>0.2668134204315593</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.2613063902399851</v>
+      </c>
+      <c r="E68">
+        <v>0.08848305672551372</v>
+      </c>
+      <c r="F68">
+        <v>-0.001092640239422293</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.03962248411588077</v>
+        <v>0.03863553423865969</v>
       </c>
       <c r="C69">
-        <v>-0.002157177003464353</v>
+        <v>0.001339729821171484</v>
       </c>
       <c r="D69">
-        <v>-0.00620884992135023</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.008246745748841279</v>
+      </c>
+      <c r="E69">
+        <v>-0.02397662088232105</v>
+      </c>
+      <c r="F69">
+        <v>0.001208317520713056</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.06553502902826465</v>
+        <v>0.06714953459351157</v>
       </c>
       <c r="C70">
-        <v>0.02457703920494651</v>
+        <v>-0.0268528191359552</v>
       </c>
       <c r="D70">
-        <v>-0.003069495657590831</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>0.02539100893051575</v>
+      </c>
+      <c r="E70">
+        <v>0.03161019680622337</v>
+      </c>
+      <c r="F70">
+        <v>0.1812655947586977</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1256728637583683</v>
+        <v>0.1365926064451266</v>
       </c>
       <c r="C71">
-        <v>-0.02804005472356738</v>
+        <v>0.03839117354247078</v>
       </c>
       <c r="D71">
-        <v>0.2834240784741368</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.2714072874439995</v>
+      </c>
+      <c r="E71">
+        <v>0.09809714122683738</v>
+      </c>
+      <c r="F71">
+        <v>-0.006786523308241675</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.1385436681650905</v>
+        <v>0.1444634964032515</v>
       </c>
       <c r="C72">
-        <v>-0.0282961650144889</v>
+        <v>0.02823887095253241</v>
       </c>
       <c r="D72">
-        <v>-0.004194692528980346</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.004314724341431453</v>
+      </c>
+      <c r="E72">
+        <v>-0.03772008046168135</v>
+      </c>
+      <c r="F72">
+        <v>-0.02844413966176151</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.2053785501978291</v>
+        <v>0.2041596578939809</v>
       </c>
       <c r="C73">
-        <v>-0.01747422209150576</v>
+        <v>0.0136577331407898</v>
       </c>
       <c r="D73">
-        <v>-0.01091958447407711</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.01776763772783703</v>
+      </c>
+      <c r="E73">
+        <v>-0.06651069003770391</v>
+      </c>
+      <c r="F73">
+        <v>-0.04216207976279077</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.09329789835739739</v>
+        <v>0.09478719665662372</v>
       </c>
       <c r="C74">
-        <v>-0.01468398652311787</v>
+        <v>0.01421206036067109</v>
       </c>
       <c r="D74">
-        <v>-0.01772268981310912</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.01705538304876668</v>
+      </c>
+      <c r="E74">
+        <v>-0.04476096226163801</v>
+      </c>
+      <c r="F74">
+        <v>-0.05325824068300142</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.1340897226453756</v>
+        <v>0.1266010567526726</v>
       </c>
       <c r="C75">
-        <v>-0.03114267599279852</v>
+        <v>0.02961086843888515</v>
       </c>
       <c r="D75">
-        <v>-0.02777061164298427</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.02919078504411449</v>
+      </c>
+      <c r="E75">
+        <v>-0.05732037987064345</v>
+      </c>
+      <c r="F75">
+        <v>-0.02118019229931924</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.08195168766379041</v>
+        <v>0.09030718129728819</v>
       </c>
       <c r="C77">
-        <v>-0.01456875758767503</v>
+        <v>0.008535496008189364</v>
       </c>
       <c r="D77">
-        <v>-0.1022813525340358</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.1144241321901666</v>
+      </c>
+      <c r="E77">
+        <v>-0.04520233454488002</v>
+      </c>
+      <c r="F77">
+        <v>-0.03266376146713237</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.09937970329046102</v>
+        <v>0.1009146311594774</v>
       </c>
       <c r="C78">
-        <v>-0.04411766740240557</v>
+        <v>0.03899163835375138</v>
       </c>
       <c r="D78">
-        <v>-0.1093539268572374</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.1112119829746665</v>
+      </c>
+      <c r="E78">
+        <v>-0.07621475922487032</v>
+      </c>
+      <c r="F78">
+        <v>-0.05240090082481053</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.1650547137674973</v>
+        <v>0.1631339633711453</v>
       </c>
       <c r="C79">
-        <v>-0.02580639176725713</v>
+        <v>0.02462698399696012</v>
       </c>
       <c r="D79">
-        <v>-0.01099122662518458</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.01312938965822583</v>
+      </c>
+      <c r="E79">
+        <v>-0.04448421941396216</v>
+      </c>
+      <c r="F79">
+        <v>-0.01310824943154517</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.08071347535789482</v>
+        <v>0.07965062883869864</v>
       </c>
       <c r="C80">
-        <v>-0.001231760829129225</v>
+        <v>-0.0005539773420213589</v>
       </c>
       <c r="D80">
-        <v>-0.05145336173197285</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.0538860558849775</v>
+      </c>
+      <c r="E80">
+        <v>-0.03263523454496746</v>
+      </c>
+      <c r="F80">
+        <v>0.02546312128721379</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1205013379521575</v>
+        <v>0.1170321972929615</v>
       </c>
       <c r="C81">
-        <v>-0.03310371885005867</v>
+        <v>0.0330464136840184</v>
       </c>
       <c r="D81">
-        <v>-0.01983261263385959</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.01428726051603321</v>
+      </c>
+      <c r="E81">
+        <v>-0.05510552801690684</v>
+      </c>
+      <c r="F81">
+        <v>-0.01880670585779027</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1658747685371229</v>
+        <v>0.1652904739136468</v>
       </c>
       <c r="C82">
-        <v>-0.02646879572068418</v>
+        <v>0.0270016912252826</v>
       </c>
       <c r="D82">
-        <v>-0.01265242565886957</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.002750658873395348</v>
+      </c>
+      <c r="E82">
+        <v>-0.02898515540377045</v>
+      </c>
+      <c r="F82">
+        <v>-0.08189329766908636</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.06325686221198423</v>
+        <v>0.05737022972999357</v>
       </c>
       <c r="C83">
-        <v>-0.005359390899742218</v>
+        <v>0.003294248517466229</v>
       </c>
       <c r="D83">
-        <v>-0.04253107292399851</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.04847621063547815</v>
+      </c>
+      <c r="E83">
+        <v>-0.001225915752796336</v>
+      </c>
+      <c r="F83">
+        <v>0.03504614298131571</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.06202315195653899</v>
+        <v>0.05670771478026726</v>
       </c>
       <c r="C84">
-        <v>-0.01389497460565471</v>
+        <v>0.0109128321080615</v>
       </c>
       <c r="D84">
-        <v>-0.06761399624334859</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.07206857170389575</v>
+      </c>
+      <c r="E84">
+        <v>-0.01381772073430232</v>
+      </c>
+      <c r="F84">
+        <v>-0.01457768226898131</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.1385097252178868</v>
+        <v>0.1345604659532531</v>
       </c>
       <c r="C85">
-        <v>-0.02999626636352546</v>
+        <v>0.0296018148379341</v>
       </c>
       <c r="D85">
-        <v>-0.0124426014271322</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.009946425069687195</v>
+      </c>
+      <c r="E85">
+        <v>-0.03693372366318342</v>
+      </c>
+      <c r="F85">
+        <v>-0.04792858176173616</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.1017478050603314</v>
+        <v>0.09385529237904428</v>
       </c>
       <c r="C86">
-        <v>0.002741271385721478</v>
+        <v>-0.005526489596964353</v>
       </c>
       <c r="D86">
-        <v>-0.009156907573735006</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.05142481349165717</v>
+      </c>
+      <c r="E86">
+        <v>-0.2182099667553276</v>
+      </c>
+      <c r="F86">
+        <v>0.899934932507514</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.09727548000493601</v>
+        <v>0.09332323576207721</v>
       </c>
       <c r="C87">
-        <v>-0.02846389450193901</v>
+        <v>0.01955541485237475</v>
       </c>
       <c r="D87">
-        <v>-0.07132643951967899</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.0959034362238731</v>
+      </c>
+      <c r="E87">
+        <v>0.05181554511366583</v>
+      </c>
+      <c r="F87">
+        <v>-0.05126645348268111</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.06157254132324112</v>
+        <v>0.06062939445979022</v>
       </c>
       <c r="C88">
-        <v>-0.005300972161343791</v>
+        <v>0.002954773742092659</v>
       </c>
       <c r="D88">
-        <v>-0.05361951748080692</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.05009142131705964</v>
+      </c>
+      <c r="E88">
+        <v>-0.02496150228105118</v>
+      </c>
+      <c r="F88">
+        <v>-0.01474005555276187</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.1185776975495216</v>
+        <v>0.1272289244770969</v>
       </c>
       <c r="C89">
-        <v>-0.004870473835355453</v>
+        <v>0.01377241462976916</v>
       </c>
       <c r="D89">
-        <v>0.2506939506017272</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.2446679128372542</v>
+      </c>
+      <c r="E89">
+        <v>0.09250769745608832</v>
+      </c>
+      <c r="F89">
+        <v>0.00795013544180961</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1383722470623058</v>
+        <v>0.1513434510901238</v>
       </c>
       <c r="C90">
-        <v>-0.02422418583648813</v>
+        <v>0.03509528315348354</v>
       </c>
       <c r="D90">
-        <v>0.268204068495612</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.2683329084224936</v>
+      </c>
+      <c r="E90">
+        <v>0.1140217458087435</v>
+      </c>
+      <c r="F90">
+        <v>0.008712707152214021</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.1210280485110946</v>
+        <v>0.1204218640912818</v>
       </c>
       <c r="C91">
-        <v>-0.02083965935103284</v>
+        <v>0.02112989082446747</v>
       </c>
       <c r="D91">
-        <v>0.01133128572118953</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.01607033164194563</v>
+      </c>
+      <c r="E91">
+        <v>-0.05380912619058293</v>
+      </c>
+      <c r="F91">
+        <v>0.0006466653983832626</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1396189402805253</v>
+        <v>0.1472720804872495</v>
       </c>
       <c r="C92">
-        <v>-0.01506183197286576</v>
+        <v>0.02609578147720749</v>
       </c>
       <c r="D92">
-        <v>0.302708645558195</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.2911902834145992</v>
+      </c>
+      <c r="E92">
+        <v>0.1018929486832671</v>
+      </c>
+      <c r="F92">
+        <v>0.01992533684332072</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.1414369517698571</v>
+        <v>0.1528010333642744</v>
       </c>
       <c r="C93">
-        <v>-0.02070967986422748</v>
+        <v>0.03014510889426582</v>
       </c>
       <c r="D93">
-        <v>0.2694605422528972</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.2646285081162149</v>
+      </c>
+      <c r="E93">
+        <v>0.07624988246906338</v>
+      </c>
+      <c r="F93">
+        <v>-0.002335816191730049</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.1343698491636262</v>
+        <v>0.127238965754886</v>
       </c>
       <c r="C94">
-        <v>-0.02768483655086891</v>
+        <v>0.0258421279756721</v>
       </c>
       <c r="D94">
-        <v>-0.04128484823898271</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.03990909571606716</v>
+      </c>
+      <c r="E94">
+        <v>-0.05718294618868468</v>
+      </c>
+      <c r="F94">
+        <v>-0.03265378348724522</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.1249453619639075</v>
+        <v>0.1282281841992911</v>
       </c>
       <c r="C95">
-        <v>-0.009774430332767019</v>
+        <v>0.003919788609902401</v>
       </c>
       <c r="D95">
-        <v>-0.08850583652114608</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.09909413801993448</v>
+      </c>
+      <c r="E95">
+        <v>-0.05496983753670969</v>
+      </c>
+      <c r="F95">
+        <v>-0.001010494632703094</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.1233762012378336</v>
+        <v>0.1167872415006063</v>
       </c>
       <c r="C96">
-        <v>0.9866157946872662</v>
+        <v>-0.9863107777920193</v>
       </c>
       <c r="D96">
-        <v>0.01614986859329937</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>-0.05144739971098702</v>
+      </c>
+      <c r="E96">
+        <v>-0.0521533071614858</v>
+      </c>
+      <c r="F96">
+        <v>-0.04207618251011742</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.1956773400244538</v>
+        <v>0.1964032490627582</v>
       </c>
       <c r="C97">
-        <v>0.003910705678597785</v>
+        <v>-0.005047859364631037</v>
       </c>
       <c r="D97">
-        <v>0.01598660403418174</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.02145613791184735</v>
+      </c>
+      <c r="E97">
+        <v>-0.0210877113322131</v>
+      </c>
+      <c r="F97">
+        <v>0.1160175393193411</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.199680488141666</v>
+        <v>0.2056481411072746</v>
       </c>
       <c r="C98">
-        <v>-0.01212453783867343</v>
+        <v>0.007942877335568713</v>
       </c>
       <c r="D98">
-        <v>-0.01048109186057547</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.01474315390239234</v>
+      </c>
+      <c r="E98">
+        <v>0.07646916297183973</v>
+      </c>
+      <c r="F98">
+        <v>0.09152225737766259</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.05512490371528205</v>
+        <v>0.05552437392451509</v>
       </c>
       <c r="C99">
-        <v>0.002221100975186681</v>
+        <v>-0.003971483174736177</v>
       </c>
       <c r="D99">
-        <v>-0.02893615450936832</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>0.03859889287448482</v>
+      </c>
+      <c r="E99">
+        <v>-0.02155398272912468</v>
+      </c>
+      <c r="F99">
+        <v>-0.004336883647286717</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.1424675495729436</v>
+        <v>0.1294739925615818</v>
       </c>
       <c r="C100">
-        <v>0.03860846189199477</v>
+        <v>-0.0510584335749255</v>
       </c>
       <c r="D100">
-        <v>-0.3977013632489246</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>0.3528852701603717</v>
+      </c>
+      <c r="E100">
+        <v>0.8863232913130179</v>
+      </c>
+      <c r="F100">
+        <v>0.1439319946929671</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.02509436145816989</v>
+        <v>0.02854716986115695</v>
       </c>
       <c r="C101">
-        <v>-0.009516392905059654</v>
+        <v>0.008778461174464548</v>
       </c>
       <c r="D101">
-        <v>-0.02495645472636011</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.03062668335142207</v>
+      </c>
+      <c r="E101">
+        <v>-0.01255148140918832</v>
+      </c>
+      <c r="F101">
+        <v>0.01420665199305355</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
